--- a/Crosswalk/D1a_D1b_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/D1a_D1b_UDS4_programmatic_crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaiga\Downloads\Json_f\Json_SOPS\my_crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37080FFE-48B3-4B3C-92EC-3F87F9F7C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034A73A-83DB-444C-8DCC-D3C59AA12241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17492" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17492" uniqueCount="1426">
   <si>
     <t>TEMPLATE - UDS3 REDCap
 Based on Kansas ADRC implementation at https://naccdata.org/adrc-resources/redcap</t>
@@ -5453,6 +5453,9 @@
   </si>
   <si>
     <t>IF(TAUPETAD==1 || TPETFTLD==1) {TAUPET = 1} ELSE {TAUPET=0}</t>
+  </si>
+  <si>
+    <t>Structured mapping</t>
   </si>
 </sst>
 </file>
@@ -6005,13 +6008,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -6762,21 +6765,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="I1" s="64" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="I1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -6808,7 +6811,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -6818,7 +6821,7 @@
         <v>1295</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="36" t="s">
@@ -6828,7 +6831,7 @@
         <v>1296</v>
       </c>
       <c r="H3" s="38"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="36" t="s">
@@ -6839,7 +6842,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="62"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="39" t="s">
         <v>8</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="38"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="39" t="s">
         <v>10</v>
       </c>
@@ -6864,7 +6867,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="64" t="s">
         <v>1298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -6874,7 +6877,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="38"/>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="64" t="s">
         <v>1298</v>
       </c>
       <c r="F5" s="36" t="s">
@@ -6884,7 +6887,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="38"/>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="64" t="s">
         <v>1298</v>
       </c>
       <c r="J5" s="36" t="s">
@@ -6895,7 +6898,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>1299</v>
       </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="62"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="41" t="s">
         <v>16</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>1299</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="41" t="s">
         <v>17</v>
       </c>
@@ -6920,7 +6923,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="43" t="s">
         <v>18</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>1301</v>
       </c>
       <c r="D7" s="38"/>
-      <c r="E7" s="62"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="43" t="s">
         <v>18</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>1302</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="62"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="43" t="s">
         <v>18</v>
       </c>
@@ -6945,7 +6948,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="41" t="s">
         <v>19</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="38"/>
-      <c r="E8" s="62"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="41" t="s">
         <v>19</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="62"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="41" t="s">
         <v>19</v>
       </c>
@@ -6970,7 +6973,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="43" t="s">
         <v>23</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>1303</v>
       </c>
       <c r="D9" s="38"/>
-      <c r="E9" s="62"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="43" t="s">
         <v>23</v>
       </c>
@@ -6986,7 +6989,7 @@
         <v>1304</v>
       </c>
       <c r="H9" s="38"/>
-      <c r="I9" s="62"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="43" t="s">
         <v>23</v>
       </c>
@@ -6995,7 +6998,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="41" t="s">
         <v>24</v>
       </c>
@@ -7003,7 +7006,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="38"/>
-      <c r="E10" s="62"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="41" t="s">
         <v>24</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>1305</v>
       </c>
       <c r="H10" s="38"/>
-      <c r="I10" s="62"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="41" t="s">
         <v>24</v>
       </c>
@@ -7020,7 +7023,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="43" t="s">
         <v>26</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="38"/>
-      <c r="E11" s="62"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="43" t="s">
         <v>26</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="62"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="43" t="s">
         <v>26</v>
       </c>
@@ -7045,7 +7048,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="41" t="s">
         <v>1306</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>1307</v>
       </c>
       <c r="D12" s="38"/>
-      <c r="E12" s="62"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="41" t="s">
         <v>1306</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>1307</v>
       </c>
       <c r="H12" s="38"/>
-      <c r="I12" s="62"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="41" t="s">
         <v>1306</v>
       </c>
@@ -7070,7 +7073,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="43" t="s">
         <v>1308</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>1309</v>
       </c>
       <c r="D13" s="38"/>
-      <c r="E13" s="62"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="43" t="s">
         <v>1308</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>1309</v>
       </c>
       <c r="H13" s="38"/>
-      <c r="I13" s="62"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="43" t="s">
         <v>1308</v>
       </c>
@@ -7095,7 +7098,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="39" t="s">
         <v>28</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>1310</v>
       </c>
       <c r="D14" s="38"/>
-      <c r="E14" s="62"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="39" t="s">
         <v>28</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>1310</v>
       </c>
       <c r="H14" s="38"/>
-      <c r="I14" s="62"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="39" t="s">
         <v>28</v>
       </c>
@@ -7120,7 +7123,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="64" t="s">
         <v>1312</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -7130,7 +7133,7 @@
         <v>111</v>
       </c>
       <c r="D15" s="38"/>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="64" t="s">
         <v>1312</v>
       </c>
       <c r="F15" s="36" t="s">
@@ -7140,7 +7143,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="64" t="s">
         <v>1312</v>
       </c>
       <c r="J15" s="36" t="s">
@@ -7151,7 +7154,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="41" t="s">
         <v>114</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>1313</v>
       </c>
       <c r="D16" s="38"/>
-      <c r="E16" s="62"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="41" t="s">
         <v>115</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>1314</v>
       </c>
       <c r="H16" s="38"/>
-      <c r="I16" s="62"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="41" t="s">
         <v>116</v>
       </c>
@@ -7176,7 +7179,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="43" t="s">
         <v>30</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="38"/>
-      <c r="E17" s="62"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="43" t="s">
         <v>30</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="38"/>
-      <c r="I17" s="62"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="43" t="s">
         <v>30</v>
       </c>
@@ -7201,7 +7204,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="47" t="s">
         <v>557</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>1315</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="47" t="s">
         <v>34</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>1316</v>
       </c>
       <c r="H18" s="38"/>
-      <c r="I18" s="62"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="47" t="s">
         <v>34</v>
       </c>
@@ -7226,7 +7229,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="43" t="s">
         <v>1317</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>1318</v>
       </c>
       <c r="D19" s="38"/>
-      <c r="E19" s="62"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="43" t="s">
         <v>1317</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>1318</v>
       </c>
       <c r="H19" s="38"/>
-      <c r="I19" s="62"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="43" t="s">
         <v>1317</v>
       </c>
@@ -7251,7 +7254,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="39" t="s">
         <v>1320</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>1321</v>
       </c>
       <c r="D20" s="38"/>
-      <c r="E20" s="62"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="39" t="s">
         <v>1320</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>1322</v>
       </c>
       <c r="H20" s="38"/>
-      <c r="I20" s="62"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="39" t="s">
         <v>1320</v>
       </c>
@@ -7365,18 +7368,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="I5:I14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="I15:I20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="I5:I14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="I15:I20"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -39749,11 +39752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -41562,10 +41565,10 @@
   <dimension ref="A1:H1101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C934" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D762" sqref="D762"/>
+      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44019,7 +44022,7 @@
         <v>1108</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="D101" s="52" t="s">
         <v>1209</v>
@@ -69709,6 +69712,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -69962,17 +69976,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -69983,6 +69986,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C91F1D-D7C0-4BC4-A531-A74CCB626B03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E310489-40CB-4400-AE63-E099764B40F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -70002,17 +70016,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6C91F1D-D7C0-4BC4-A531-A74CCB626B03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B08CB415-0931-4857-B54E-7A654841EEAE}">
   <ds:schemaRefs>
